--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/14. XXI-В-28-2.1-500-14 (Брест колоски).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/14. XXI-В-28-2.1-500-14 (Брест колоски).xlsx
@@ -905,6 +905,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,20 +928,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1241,8 +1241,8 @@
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:I28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1262,45 +1262,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
       <c r="J1" s="97"/>
       <c r="K1" s="97"/>
       <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="97"/>
       <c r="K2" s="97"/>
       <c r="L2" s="95"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="35"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -2066,12 +2066,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2080,10 +2080,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="102"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="12" t="s">
         <v>16</v>
       </c>
@@ -2098,11 +2098,11 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="100">
+      <c r="A38" s="106">
         <f>A21-F32</f>
         <v>2423541</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="74">
         <f>1-G32</f>
         <v>0.1331615934065935</v>
@@ -2164,8 +2164,8 @@
       <c r="F42" s="58"/>
       <c r="G42" s="58"/>
       <c r="H42" s="58"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="99"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="105"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="59"/>
@@ -2259,9 +2259,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="106"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="102"/>
       <c r="E52" s="64"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2278,8 +2278,8 @@
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="99"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="59"/>
@@ -2290,8 +2290,8 @@
       <c r="F54" s="61"/>
       <c r="G54" s="61"/>
       <c r="H54" s="60"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="59"/>
@@ -2302,8 +2302,8 @@
       <c r="F55" s="62"/>
       <c r="G55" s="62"/>
       <c r="H55" s="62"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
@@ -2316,24 +2316,18 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="98"/>
-      <c r="C61" s="99"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="98"/>
-      <c r="C68" s="99"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="105"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2341,6 +2335,12 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/14. XXI-В-28-2.1-500-14 (Брест колоски).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/14. XXI-В-28-2.1-500-14 (Брест колоски).xlsx
@@ -668,7 +668,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -686,7 +686,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,7 +703,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -728,12 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -867,28 +859,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,30 +882,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1241,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H21" activeCellId="1" sqref="E21:F31 H21:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1262,50 +1263,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="16.2" thickBot="1">
@@ -1316,69 +1317,69 @@
       <c r="G4" s="6"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="M4" s="14"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="77">
+      <c r="A6" s="73">
         <v>1</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42">
         <v>26</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="46">
+      <c r="F6" s="83"/>
+      <c r="G6" s="42">
         <f>E6-F6</f>
         <v>26</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="76"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="76"/>
+      <c r="L6" s="72"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="78">
+      <c r="A7" s="74">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1388,23 +1389,23 @@
       <c r="E7" s="9">
         <v>26</v>
       </c>
-      <c r="F7" s="93"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="9">
         <f t="shared" ref="G7:G17" si="0">E7-F7</f>
         <v>26</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="76"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="78">
+      <c r="A8" s="74">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="51" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1414,23 +1415,23 @@
       <c r="E8" s="9">
         <v>34</v>
       </c>
-      <c r="F8" s="93"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="76"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="76"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="78">
+      <c r="A9" s="74">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1440,23 +1441,23 @@
       <c r="E9" s="9">
         <v>34</v>
       </c>
-      <c r="F9" s="93"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="62"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="76"/>
+      <c r="L9" s="72"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="78">
+      <c r="A10" s="74">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1466,23 +1467,23 @@
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="93"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="76"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="72"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="78">
+      <c r="A11" s="74">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="51" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1492,23 +1493,23 @@
       <c r="E11" s="9">
         <v>24</v>
       </c>
-      <c r="F11" s="93"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="62"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="76"/>
+      <c r="L11" s="72"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="78">
+      <c r="A12" s="74">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1518,26 +1519,26 @@
       <c r="E12" s="9">
         <v>70</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="84">
         <v>70</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="33"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="78">
+      <c r="A13" s="74">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1547,24 +1548,24 @@
       <c r="E13" s="9">
         <v>20</v>
       </c>
-      <c r="F13" s="93"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="33"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="78">
+      <c r="A14" s="74">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1574,25 +1575,25 @@
       <c r="E14" s="9">
         <v>9</v>
       </c>
-      <c r="F14" s="93"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="76"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="78">
+      <c r="A15" s="74">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="51" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1602,70 +1603,70 @@
       <c r="E15" s="9">
         <v>60</v>
       </c>
-      <c r="F15" s="93">
+      <c r="F15" s="84">
         <v>20</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="76"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="78">
+      <c r="A16" s="74">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="51" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>70</v>
       </c>
-      <c r="F16" s="93"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="76"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="72"/>
     </row>
     <row r="17" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A17" s="79">
+      <c r="A17" s="75">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="47">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="76"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="66"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1677,106 +1678,106 @@
     </row>
     <row r="19" spans="1:12" ht="16.2" thickBot="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="73">
+      <c r="A21" s="69">
         <f>E6*700000</f>
         <v>18200000</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89">
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100">
         <v>8730000</v>
       </c>
-      <c r="G21" s="83">
+      <c r="G21" s="79">
         <f t="shared" ref="G21:G28" si="2">F21/A$21</f>
         <v>0.47967032967032969</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="104">
         <f>A21-F21</f>
         <v>9470000</v>
       </c>
-      <c r="I21" s="75">
+      <c r="I21" s="71">
         <f>1-G21</f>
         <v>0.52032967032967026</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="85">
+      <c r="A22" s="41"/>
+      <c r="B22" s="80">
         <v>43129</v>
       </c>
-      <c r="C22" s="85">
+      <c r="C22" s="80">
         <v>43131</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="101">
         <v>382632</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="101">
         <v>416037</v>
       </c>
-      <c r="G22" s="83">
+      <c r="G22" s="79">
         <f t="shared" si="2"/>
         <v>2.2859175824175824E-2</v>
       </c>
-      <c r="H22" s="86">
+      <c r="H22" s="102">
         <f t="shared" ref="H22:I26" si="3">H21-F22</f>
         <v>9053963</v>
       </c>
-      <c r="I22" s="75">
+      <c r="I22" s="71">
         <f t="shared" si="3"/>
         <v>0.49747049450549441</v>
       </c>
@@ -1785,137 +1786,137 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="87">
+      <c r="A23" s="14"/>
+      <c r="B23" s="81">
         <v>43497</v>
       </c>
-      <c r="C23" s="87">
+      <c r="C23" s="81">
         <v>43503</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="81">
         <v>43504</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="102">
         <v>1088892</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="102">
         <v>1159602</v>
       </c>
-      <c r="G23" s="83">
+      <c r="G23" s="79">
         <f t="shared" si="2"/>
         <v>6.371439560439561E-2</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="102">
         <f t="shared" si="3"/>
         <v>7894361</v>
       </c>
-      <c r="I23" s="75">
+      <c r="I23" s="71">
         <f t="shared" si="3"/>
         <v>0.43375609890109879</v>
       </c>
-      <c r="J23" s="70"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="15"/>
-      <c r="B24" s="87">
+      <c r="A24" s="14"/>
+      <c r="B24" s="81">
         <v>43566</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="81">
         <v>43573</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="81">
         <v>43573</v>
       </c>
-      <c r="E24" s="91">
+      <c r="E24" s="103">
         <v>1110348</v>
       </c>
-      <c r="F24" s="91">
+      <c r="F24" s="103">
         <v>1214173</v>
       </c>
-      <c r="G24" s="83">
+      <c r="G24" s="79">
         <f t="shared" si="2"/>
         <v>6.6712802197802193E-2</v>
       </c>
-      <c r="H24" s="86">
+      <c r="H24" s="102">
         <f t="shared" si="3"/>
         <v>6680188</v>
       </c>
-      <c r="I24" s="75">
+      <c r="I24" s="71">
         <f t="shared" si="3"/>
         <v>0.36704329670329661</v>
       </c>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
-      <c r="B25" s="87">
+      <c r="A25" s="14"/>
+      <c r="B25" s="81">
         <v>43595</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="81">
         <v>43602</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="81">
         <v>43603</v>
       </c>
-      <c r="E25" s="86">
+      <c r="E25" s="102">
         <v>1163988</v>
       </c>
-      <c r="F25" s="86">
+      <c r="F25" s="102">
         <v>1233815</v>
       </c>
-      <c r="G25" s="88">
+      <c r="G25" s="82">
         <f t="shared" si="2"/>
         <v>6.779203296703297E-2</v>
       </c>
-      <c r="H25" s="86">
+      <c r="H25" s="102">
         <f t="shared" si="3"/>
         <v>5446373</v>
       </c>
-      <c r="I25" s="75">
+      <c r="I25" s="71">
         <f t="shared" si="3"/>
         <v>0.29925126373626365</v>
       </c>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="15"/>
-      <c r="B26" s="87">
+      <c r="A26" s="14"/>
+      <c r="B26" s="81">
         <v>43671</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="81">
         <v>43678</v>
       </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="86">
+      <c r="D26" s="81"/>
+      <c r="E26" s="102">
         <v>1163988</v>
       </c>
-      <c r="F26" s="86">
+      <c r="F26" s="102">
         <v>1238198</v>
       </c>
-      <c r="G26" s="88">
+      <c r="G26" s="82">
         <f t="shared" si="2"/>
         <v>6.8032857142857145E-2</v>
       </c>
-      <c r="H26" s="86">
+      <c r="H26" s="102">
         <f t="shared" si="3"/>
         <v>4208175</v>
       </c>
-      <c r="I26" s="75">
+      <c r="I26" s="71">
         <f t="shared" si="3"/>
         <v>0.23121840659340651</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="10">
         <v>43707</v>
       </c>
@@ -1925,30 +1926,30 @@
       <c r="D27" s="10">
         <v>43712</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="102">
         <v>307536</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="102">
         <v>344820</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="25">
         <f t="shared" si="2"/>
         <v>1.8946153846153845E-2</v>
       </c>
-      <c r="H27" s="86">
+      <c r="H27" s="102">
         <f t="shared" ref="H27" si="4">H26-F27</f>
         <v>3863355</v>
       </c>
-      <c r="I27" s="75">
+      <c r="I27" s="71">
         <f t="shared" ref="I27" si="5">I26-G27</f>
         <v>0.21227225274725267</v>
       </c>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="10" t="s">
         <v>37</v>
       </c>
@@ -1958,100 +1959,100 @@
       <c r="D28" s="10">
         <v>43718</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="102">
         <v>1397783</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="102">
         <v>1439814</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="25">
         <f t="shared" si="2"/>
         <v>7.9110659340659334E-2</v>
       </c>
-      <c r="H28" s="86">
+      <c r="H28" s="102">
         <f t="shared" ref="H28" si="6">H27-F28</f>
         <v>2423541</v>
       </c>
-      <c r="I28" s="75">
+      <c r="I28" s="71">
         <f t="shared" ref="I28" si="7">I27-G28</f>
         <v>0.13316159340659334</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="15"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="30"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="53">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="49">
         <f>SUM(E21:E31)</f>
         <v>6615167</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="48">
         <f>SUM(F21:F31)</f>
         <v>15776459</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="24">
         <f>SUM(G21:G31)</f>
         <v>0.8668384065934065</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="21">
         <f>A21-F32</f>
         <v>2423541</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="30">
         <f>1-G32</f>
         <v>0.1331615934065935</v>
       </c>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1"/>
@@ -2066,12 +2067,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2080,14 +2081,14 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="93"/>
+      <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="1"/>
@@ -2098,27 +2099,27 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="106">
+      <c r="A38" s="91">
         <f>A21-F32</f>
         <v>2423541</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="74">
+      <c r="B38" s="92"/>
+      <c r="C38" s="70">
         <f>1-G32</f>
         <v>0.1331615934065935</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="22">
         <f>(C38/0.8)*100</f>
         <v>16.645199175824189</v>
       </c>
-      <c r="E38" s="96" t="s">
+      <c r="E38" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1"/>
@@ -2156,113 +2157,113 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="105"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="90"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="59"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="60"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="56"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="60"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="56"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="60"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="56"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="60"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="56"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="60"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="56"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="60"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="56"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="60"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="56"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="59"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="60"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="56"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="64"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="60"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2270,40 +2271,40 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="105"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="90"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="59"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="59"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
@@ -2316,18 +2317,24 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="90"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="104"/>
-      <c r="C68" s="105"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="90"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2335,12 +2342,6 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/14. XXI-В-28-2.1-500-14 (Брест колоски).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/14. XXI-В-28-2.1-500-14 (Брест колоски).xlsx
@@ -882,18 +882,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,35 +911,25 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1242,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H21" activeCellId="1" sqref="E21:F31 H21:H31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1263,45 +1263,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
       <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
       <c r="J2" s="88"/>
       <c r="K2" s="88"/>
       <c r="L2" s="86"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="31"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -1732,15 +1732,15 @@
       <c r="B21" s="77"/>
       <c r="C21" s="78"/>
       <c r="D21" s="77"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100">
+      <c r="E21" s="89"/>
+      <c r="F21" s="89">
         <v>8730000</v>
       </c>
       <c r="G21" s="79">
         <f t="shared" ref="G21:G28" si="2">F21/A$21</f>
         <v>0.47967032967032969</v>
       </c>
-      <c r="H21" s="104">
+      <c r="H21" s="93">
         <f>A21-F21</f>
         <v>9470000</v>
       </c>
@@ -1763,17 +1763,17 @@
       <c r="D22" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="90">
         <v>382632</v>
       </c>
-      <c r="F22" s="101">
+      <c r="F22" s="90">
         <v>416037</v>
       </c>
       <c r="G22" s="79">
         <f t="shared" si="2"/>
         <v>2.2859175824175824E-2</v>
       </c>
-      <c r="H22" s="102">
+      <c r="H22" s="91">
         <f t="shared" ref="H22:I26" si="3">H21-F22</f>
         <v>9053963</v>
       </c>
@@ -1796,17 +1796,17 @@
       <c r="D23" s="81">
         <v>43504</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="91">
         <v>1088892</v>
       </c>
-      <c r="F23" s="102">
+      <c r="F23" s="91">
         <v>1159602</v>
       </c>
       <c r="G23" s="79">
         <f t="shared" si="2"/>
         <v>6.371439560439561E-2</v>
       </c>
-      <c r="H23" s="102">
+      <c r="H23" s="91">
         <f t="shared" si="3"/>
         <v>7894361</v>
       </c>
@@ -1829,17 +1829,17 @@
       <c r="D24" s="81">
         <v>43573</v>
       </c>
-      <c r="E24" s="103">
+      <c r="E24" s="92">
         <v>1110348</v>
       </c>
-      <c r="F24" s="103">
+      <c r="F24" s="92">
         <v>1214173</v>
       </c>
       <c r="G24" s="79">
         <f t="shared" si="2"/>
         <v>6.6712802197802193E-2</v>
       </c>
-      <c r="H24" s="102">
+      <c r="H24" s="91">
         <f t="shared" si="3"/>
         <v>6680188</v>
       </c>
@@ -1862,17 +1862,17 @@
       <c r="D25" s="81">
         <v>43603</v>
       </c>
-      <c r="E25" s="102">
+      <c r="E25" s="91">
         <v>1163988</v>
       </c>
-      <c r="F25" s="102">
+      <c r="F25" s="91">
         <v>1233815</v>
       </c>
       <c r="G25" s="82">
         <f t="shared" si="2"/>
         <v>6.779203296703297E-2</v>
       </c>
-      <c r="H25" s="102">
+      <c r="H25" s="91">
         <f t="shared" si="3"/>
         <v>5446373</v>
       </c>
@@ -1893,17 +1893,17 @@
         <v>43678</v>
       </c>
       <c r="D26" s="81"/>
-      <c r="E26" s="102">
+      <c r="E26" s="91">
         <v>1163988</v>
       </c>
-      <c r="F26" s="102">
+      <c r="F26" s="91">
         <v>1238198</v>
       </c>
       <c r="G26" s="82">
         <f t="shared" si="2"/>
         <v>6.8032857142857145E-2</v>
       </c>
-      <c r="H26" s="102">
+      <c r="H26" s="91">
         <f t="shared" si="3"/>
         <v>4208175</v>
       </c>
@@ -1926,17 +1926,17 @@
       <c r="D27" s="10">
         <v>43712</v>
       </c>
-      <c r="E27" s="102">
+      <c r="E27" s="91">
         <v>307536</v>
       </c>
-      <c r="F27" s="102">
+      <c r="F27" s="91">
         <v>344820</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" si="2"/>
         <v>1.8946153846153845E-2</v>
       </c>
-      <c r="H27" s="102">
+      <c r="H27" s="91">
         <f t="shared" ref="H27" si="4">H26-F27</f>
         <v>3863355</v>
       </c>
@@ -1959,23 +1959,23 @@
       <c r="D28" s="10">
         <v>43718</v>
       </c>
-      <c r="E28" s="102">
-        <v>1397783</v>
-      </c>
-      <c r="F28" s="102">
-        <v>1439814</v>
+      <c r="E28" s="91">
+        <v>1405368</v>
+      </c>
+      <c r="F28" s="91">
+        <v>1447623</v>
       </c>
       <c r="G28" s="25">
         <f t="shared" si="2"/>
-        <v>7.9110659340659334E-2</v>
-      </c>
-      <c r="H28" s="102">
+        <v>7.9539725274725276E-2</v>
+      </c>
+      <c r="H28" s="91">
         <f t="shared" ref="H28" si="6">H27-F28</f>
-        <v>2423541</v>
+        <v>2415732</v>
       </c>
       <c r="I28" s="71">
         <f t="shared" ref="I28" si="7">I27-G28</f>
-        <v>0.13316159340659334</v>
+        <v>0.1327325274725274</v>
       </c>
       <c r="J28" s="66"/>
       <c r="K28" s="66"/>
@@ -1986,10 +1986,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="102"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="91"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="102"/>
+      <c r="H29" s="91"/>
       <c r="I29" s="27"/>
       <c r="J29" s="66"/>
       <c r="K29" s="66"/>
@@ -2000,10 +2000,10 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="102"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="102"/>
+      <c r="H30" s="91"/>
       <c r="I30" s="27"/>
       <c r="J30" s="66"/>
       <c r="K30" s="66"/>
@@ -2014,10 +2014,10 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="106"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="95"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="107"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="28"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2032,23 +2032,23 @@
       <c r="D32" s="20"/>
       <c r="E32" s="49">
         <f>SUM(E21:E31)</f>
-        <v>6615167</v>
+        <v>6622752</v>
       </c>
       <c r="F32" s="48">
         <f>SUM(F21:F31)</f>
-        <v>15776459</v>
+        <v>15784268</v>
       </c>
       <c r="G32" s="24">
         <f>SUM(G21:G31)</f>
-        <v>0.8668384065934065</v>
+        <v>0.86726747252747249</v>
       </c>
       <c r="H32" s="21">
         <f>A21-F32</f>
-        <v>2423541</v>
+        <v>2415732</v>
       </c>
       <c r="I32" s="30">
         <f>1-G32</f>
-        <v>0.1331615934065935</v>
+        <v>0.13273252747252751</v>
       </c>
       <c r="J32" s="68"/>
       <c r="K32" s="68"/>
@@ -2067,12 +2067,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2081,10 +2081,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="93"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
@@ -2099,18 +2099,18 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="91">
+      <c r="A38" s="105">
         <f>A21-F32</f>
-        <v>2423541</v>
-      </c>
-      <c r="B38" s="92"/>
+        <v>2415732</v>
+      </c>
+      <c r="B38" s="106"/>
       <c r="C38" s="70">
         <f>1-G32</f>
-        <v>0.1331615934065935</v>
+        <v>0.13273252747252751</v>
       </c>
       <c r="D38" s="22">
         <f>(C38/0.8)*100</f>
-        <v>16.645199175824189</v>
+        <v>16.591565934065937</v>
       </c>
       <c r="E38" s="87" t="s">
         <v>38</v>
@@ -2165,8 +2165,8 @@
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="H42" s="54"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="90"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="104"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="55"/>
@@ -2260,9 +2260,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1"/>
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="98"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="60"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2279,8 +2279,8 @@
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="H53" s="54"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="90"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="55"/>
@@ -2291,8 +2291,8 @@
       <c r="F54" s="57"/>
       <c r="G54" s="57"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="55"/>
@@ -2303,8 +2303,8 @@
       <c r="F55" s="58"/>
       <c r="G55" s="58"/>
       <c r="H55" s="58"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
@@ -2317,24 +2317,18 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="89"/>
-      <c r="C68" s="90"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="104"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2342,6 +2336,12 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/14. XXI-В-28-2.1-500-14 (Брест колоски).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/14. XXI-В-28-2.1-500-14 (Брест колоски).xlsx
@@ -906,30 +906,30 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1242,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1263,45 +1263,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
       <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
       <c r="J2" s="88"/>
       <c r="K2" s="88"/>
       <c r="L2" s="86"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="31"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -2067,12 +2067,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2081,10 +2081,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="107"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
@@ -2099,11 +2099,11 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="105">
+      <c r="A38" s="99">
         <f>A21-F32</f>
         <v>2415732</v>
       </c>
-      <c r="B38" s="106"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="70">
         <f>1-G32</f>
         <v>0.13273252747252751</v>
@@ -2165,8 +2165,8 @@
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="H42" s="54"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="104"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="98"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="55"/>
@@ -2260,9 +2260,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="101"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="106"/>
       <c r="E52" s="60"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2279,8 +2279,8 @@
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="H53" s="54"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="104"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="98"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="55"/>
@@ -2291,8 +2291,8 @@
       <c r="F54" s="57"/>
       <c r="G54" s="57"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="55"/>
@@ -2303,8 +2303,8 @@
       <c r="F55" s="58"/>
       <c r="G55" s="58"/>
       <c r="H55" s="58"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
@@ -2317,18 +2317,24 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="103"/>
-      <c r="C61" s="104"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="98"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="103"/>
-      <c r="C68" s="104"/>
+      <c r="B68" s="97"/>
+      <c r="C68" s="98"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2336,12 +2342,6 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/14. XXI-В-28-2.1-500-14 (Брест колоски).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/14. XXI-В-28-2.1-500-14 (Брест колоски).xlsx
@@ -668,7 +668,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -906,31 +906,32 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1242,8 +1243,8 @@
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1263,45 +1264,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
       <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
       <c r="J2" s="88"/>
       <c r="K2" s="88"/>
       <c r="L2" s="86"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="31"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -1737,7 +1738,7 @@
         <v>8730000</v>
       </c>
       <c r="G21" s="79">
-        <f t="shared" ref="G21:G28" si="2">F21/A$21</f>
+        <f t="shared" ref="G21:G29" si="2">F21/A$21</f>
         <v>0.47967032967032969</v>
       </c>
       <c r="H21" s="93">
@@ -1983,14 +1984,33 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="10">
+        <v>43743</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43755</v>
+      </c>
+      <c r="D29" s="108">
+        <v>43756</v>
+      </c>
+      <c r="E29" s="92">
+        <v>2226060</v>
+      </c>
+      <c r="F29" s="91">
+        <v>2335045</v>
+      </c>
+      <c r="G29" s="26">
+        <f t="shared" si="2"/>
+        <v>0.12829917582417583</v>
+      </c>
+      <c r="H29" s="91">
+        <f t="shared" ref="H29" si="8">H28-F29</f>
+        <v>80687</v>
+      </c>
+      <c r="I29" s="71">
+        <f t="shared" ref="I29" si="9">I28-G29</f>
+        <v>4.4333516483515689E-3</v>
+      </c>
       <c r="J29" s="66"/>
       <c r="K29" s="66"/>
       <c r="L29" s="1"/>
@@ -2032,23 +2052,23 @@
       <c r="D32" s="20"/>
       <c r="E32" s="49">
         <f>SUM(E21:E31)</f>
-        <v>6622752</v>
+        <v>8848812</v>
       </c>
       <c r="F32" s="48">
         <f>SUM(F21:F31)</f>
-        <v>15784268</v>
+        <v>18119313</v>
       </c>
       <c r="G32" s="24">
         <f>SUM(G21:G31)</f>
-        <v>0.86726747252747249</v>
+        <v>0.99556664835164832</v>
       </c>
       <c r="H32" s="21">
         <f>A21-F32</f>
-        <v>2415732</v>
+        <v>80687</v>
       </c>
       <c r="I32" s="30">
         <f>1-G32</f>
-        <v>0.13273252747252751</v>
+        <v>4.4333516483516799E-3</v>
       </c>
       <c r="J32" s="68"/>
       <c r="K32" s="68"/>
@@ -2067,12 +2087,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2081,10 +2101,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="101"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
@@ -2099,18 +2119,18 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="99">
+      <c r="A38" s="105">
         <f>A21-F32</f>
-        <v>2415732</v>
-      </c>
-      <c r="B38" s="100"/>
+        <v>80687</v>
+      </c>
+      <c r="B38" s="106"/>
       <c r="C38" s="70">
         <f>1-G32</f>
-        <v>0.13273252747252751</v>
+        <v>4.4333516483516799E-3</v>
       </c>
       <c r="D38" s="22">
         <f>(C38/0.8)*100</f>
-        <v>16.591565934065937</v>
+        <v>0.55416895604395999</v>
       </c>
       <c r="E38" s="87" t="s">
         <v>38</v>
@@ -2165,8 +2185,8 @@
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="H42" s="54"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="98"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="104"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="55"/>
@@ -2260,9 +2280,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="106"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="60"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2279,8 +2299,8 @@
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="H53" s="54"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="98"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="55"/>
@@ -2291,8 +2311,8 @@
       <c r="F54" s="57"/>
       <c r="G54" s="57"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="55"/>
@@ -2303,8 +2323,8 @@
       <c r="F55" s="58"/>
       <c r="G55" s="58"/>
       <c r="H55" s="58"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
@@ -2317,24 +2337,18 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="97"/>
-      <c r="C61" s="98"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="97"/>
-      <c r="C68" s="98"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="104"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:I2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2342,6 +2356,12 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
